--- a/Manual testing Project01.xlsx
+++ b/Manual testing Project01.xlsx
@@ -8,33 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manual Testting Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474384C7-8981-4CF6-91E1-AE9EE75C8AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3AEB78-C32F-4649-8FB4-21DE07E3DD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9219AE8-1389-43B1-813B-F9C9B2A03C16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E9219AE8-1389-43B1-813B-F9C9B2A03C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$5:$H$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$I$5:$I$19</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$J$5:$J$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$K$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$K$5:$K$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$5:$L$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$5:$I$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$5:$J$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$K$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$K$5:$K$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$5:$L$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$5:$H$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="186">
   <si>
     <t>Test Description</t>
   </si>
@@ -186,13 +167,441 @@
   </si>
   <si>
     <t>Milage Calculator Module Testing</t>
+  </si>
+  <si>
+    <t>TEST ID</t>
+  </si>
+  <si>
+    <t>TEST SENARIO</t>
+  </si>
+  <si>
+    <t>TEST CASES</t>
+  </si>
+  <si>
+    <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <t>ACTUAL RESULT</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Textulis WebApplication Manual Testing Report</t>
+  </si>
+  <si>
+    <t>First open the browser and click the site url and open that site fastly</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Site Visibile</t>
+  </si>
+  <si>
+    <t>Site Visible</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>MT.01.8</t>
+  </si>
+  <si>
+    <t>MT.01.9</t>
+  </si>
+  <si>
+    <t>MT.01.10</t>
+  </si>
+  <si>
+    <t>MT.01.11</t>
+  </si>
+  <si>
+    <t>MT.01.12</t>
+  </si>
+  <si>
+    <t>MT.01.13</t>
+  </si>
+  <si>
+    <t>MT.01.14</t>
+  </si>
+  <si>
+    <t>MT.01.15</t>
+  </si>
+  <si>
+    <t>In navbar the the dropdown menu should be working perfectly.</t>
+  </si>
+  <si>
+    <t>Dropdown menu working</t>
+  </si>
+  <si>
+    <t>Similarly the text colour will be white after "red" tab clicked</t>
+  </si>
+  <si>
+    <t>Text colur will be White color</t>
+  </si>
+  <si>
+    <t>Text color is White</t>
+  </si>
+  <si>
+    <t>Click on the page red colour button and page will be red colour</t>
+  </si>
+  <si>
+    <t>Click on the page blue colour button and page will be blue colour</t>
+  </si>
+  <si>
+    <t>clicked on blue tap button</t>
+  </si>
+  <si>
+    <t>clicked on red tap button</t>
+  </si>
+  <si>
+    <t>Similarly the text colour will be Black after "blue" tab clicked</t>
+  </si>
+  <si>
+    <t>Text colur will be Black color</t>
+  </si>
+  <si>
+    <t>Text color is Black</t>
+  </si>
+  <si>
+    <t>Click on the page green colour button and page will be green colour</t>
+  </si>
+  <si>
+    <t>clicked on the green tap button</t>
+  </si>
+  <si>
+    <t>Similarly the text colour will be White after "Green" tab clicked</t>
+  </si>
+  <si>
+    <t>Click on the page Yellow colour button and page will be yellowcolour</t>
+  </si>
+  <si>
+    <t>clicked on the yellow tap button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page  background will be Yellowpage     </t>
+  </si>
+  <si>
+    <t>Page colour is yellow</t>
+  </si>
+  <si>
+    <t>Similarly the text colour will be Black after "yelloe" tab clicked</t>
+  </si>
+  <si>
+    <t>These three function button`s colour will be change depending on clour change of page</t>
+  </si>
+  <si>
+    <t>Clicked on four navbar one by one</t>
+  </si>
+  <si>
+    <t>Three button colour are -"White ,"Black","Red","Green"</t>
+  </si>
+  <si>
+    <t>page  background will be bluepage                                            background is be blue</t>
+  </si>
+  <si>
+    <t>page  background will be redpage                                                  background is be red</t>
+  </si>
+  <si>
+    <t>page  background will be Greenpage                                              background is be green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colour is not change according to CRS</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Text area should be in white </t>
+  </si>
+  <si>
+    <t>Text area is White background</t>
+  </si>
+  <si>
+    <t>Text area is white</t>
+  </si>
+  <si>
+    <t>cliked on text area</t>
+  </si>
+  <si>
+    <t>Clicked on text are the the place holder border will be in blue line</t>
+  </si>
+  <si>
+    <t>The palceholder border is blue and highlighted</t>
+  </si>
+  <si>
+    <t>The palceholder border will be blue and highlighted</t>
+  </si>
+  <si>
+    <t>MT.01.16</t>
+  </si>
+  <si>
+    <t>MT.01.17</t>
+  </si>
+  <si>
+    <t>MT.01.18</t>
+  </si>
+  <si>
+    <t>MT.01.19</t>
+  </si>
+  <si>
+    <t>MT.01.20</t>
+  </si>
+  <si>
+    <t>ABCXYZHSDFSH</t>
+  </si>
+  <si>
+    <t>TEXT area (LOWERCASE FUNCATION)</t>
+  </si>
+  <si>
+    <t>abcxyzhsdfsh</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>TEXT area (HIGHER CASE FUNCATION)</t>
+  </si>
+  <si>
+    <t>NO result</t>
+  </si>
+  <si>
+    <t>No result</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Half text Small and Upper case (Lower to Upper and upper to lower) simunatneously</t>
+  </si>
+  <si>
+    <t>FIRSTNAME,firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number with String as a input </t>
+  </si>
+  <si>
+    <t>2024Name</t>
+  </si>
+  <si>
+    <t>2024NAME, 2024name</t>
+  </si>
+  <si>
+    <t>Name2024,NAME2024</t>
+  </si>
+  <si>
+    <t>MT.01.21</t>
+  </si>
+  <si>
+    <t>MT.01.22</t>
+  </si>
+  <si>
+    <t>MT.01.23</t>
+  </si>
+  <si>
+    <t>MT.01.24</t>
+  </si>
+  <si>
+    <t>MT.01.25</t>
+  </si>
+  <si>
+    <t>Input value`s space remove in any small word</t>
+  </si>
+  <si>
+    <t>N  A M      A E</t>
+  </si>
+  <si>
+    <t>N A M A E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S H  UBH  ASIS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S H UBH ASIS </t>
+  </si>
+  <si>
+    <t>Input value`s space remove in any  small letter word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gh  o   sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gh o sh</t>
+  </si>
+  <si>
+    <t>1 3 4 5      9 10  12</t>
+  </si>
+  <si>
+    <t>1 3 4 5 9 10 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same like input as a Sentecnce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input like a Number for extra remove space </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3 4 5 9 10 12 10 230 </t>
+  </si>
+  <si>
+    <t>9 words and 23chracters</t>
+  </si>
+  <si>
+    <t>MT.01.26</t>
+  </si>
+  <si>
+    <t>MT.01.27</t>
+  </si>
+  <si>
+    <t>MT.01.28</t>
+  </si>
+  <si>
+    <t>input number for word and charcter counting calculation</t>
+  </si>
+  <si>
+    <t>input text  for word and charcter counting calculation</t>
+  </si>
+  <si>
+    <t>I AM A B TECH  ECE ENGINEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 words and 27chracters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 words and 27chracters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same like above </t>
+  </si>
+  <si>
+    <t>0 words and 0chracters</t>
+  </si>
+  <si>
+    <t>0 words and 0chracters</t>
+  </si>
+  <si>
+    <t>https://hilarious-moonbeam-5957f8.netlify.app/</t>
+  </si>
+  <si>
+    <t>Reading tinme test according to input</t>
+  </si>
+  <si>
+    <t>0 Reading time</t>
+  </si>
+  <si>
+    <t>1Reading time</t>
+  </si>
+  <si>
+    <t>0.07200000000000001 Reading time</t>
+  </si>
+  <si>
+    <t>0.07200000000000001 Reading time</t>
+  </si>
+  <si>
+    <t>MT.01.29</t>
+  </si>
+  <si>
+    <t>MT.01.30</t>
+  </si>
+  <si>
+    <t>MT.01.31</t>
+  </si>
+  <si>
+    <t>lastname12345678991000</t>
+  </si>
+  <si>
+    <t>0.176 Reading time</t>
+  </si>
+  <si>
+    <t>###4552111222    45522    89955</t>
+  </si>
+  <si>
+    <t>0.248 Reading time</t>
+  </si>
+  <si>
+    <t>0.348 Reading time</t>
+  </si>
+  <si>
+    <t>same with the long sentence</t>
+  </si>
+  <si>
+    <t>I am doing Software Manual Testing</t>
+  </si>
+  <si>
+    <t>0.272 Reading time</t>
+  </si>
+  <si>
+    <t>0.272 Reading time</t>
+  </si>
+  <si>
+    <t>MT.01.32</t>
+  </si>
+  <si>
+    <t>MT.01.33</t>
+  </si>
+  <si>
+    <t>same like above  with only numbers</t>
+  </si>
+  <si>
+    <t>100 200 3000 400 500 600 700 800 900 10000</t>
+  </si>
+  <si>
+    <t>0.336 Reading time</t>
+  </si>
+  <si>
+    <t>0.336 Reading time</t>
+  </si>
+  <si>
+    <t>previw panle with same input type show</t>
+  </si>
+  <si>
+    <t>Zerodha does not offer banking services.</t>
+  </si>
+  <si>
+    <t>MT.01.34</t>
+  </si>
+  <si>
+    <t>MT.01.35</t>
+  </si>
+  <si>
+    <t>previw panle with same input for upper case change</t>
+  </si>
+  <si>
+    <t>The names in the Zerodha account</t>
+  </si>
+  <si>
+    <t>preview same like ainput</t>
+  </si>
+  <si>
+    <t>preview same like a input</t>
+  </si>
+  <si>
+    <t>preview same like a input uppercase</t>
+  </si>
+  <si>
+    <t>THE NAMES IN THE ZERODHA ACCOUNT</t>
+  </si>
+  <si>
+    <t>previw panle with same input for lower case change</t>
+  </si>
+  <si>
+    <t>preview same like a input in upper case</t>
+  </si>
+  <si>
+    <t>preview same like a input in lower  case</t>
+  </si>
+  <si>
+    <t>preview same like a input in lower case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +686,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +768,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -363,12 +798,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -397,10 +912,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,15 +1280,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36574EF-CDD2-4124-8815-E17708B40F04}">
   <dimension ref="E2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" customWidth="1"/>
     <col min="8" max="8" width="47.77734375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="28.21875" customWidth="1"/>
@@ -735,7 +1297,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -937,7 +1499,7 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="13">
@@ -1053,7 +1615,7 @@
       <c r="E19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -1086,10 +1648,10 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
@@ -1107,6 +1669,783 @@
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{993DDDC7-A1B2-4434-ADA4-BF1D7972494A}"/>
     <hyperlink ref="K14" r:id="rId2" xr:uid="{348FFE7E-DFDA-4310-8409-547CBBC92DC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56832ECF-5503-4014-8C0B-3765C566F3CF}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="45"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="32">
+        <v>123555</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="32">
+        <v>123555</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{C0C1D575-0F7C-47D3-BED1-2DFA5E7075FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
